--- a/data/trans_camb/P6901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,47; 15,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,44; -1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,33; 31,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,85; 19,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,6; 28,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,14; 11,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,0; 11,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,67; 14,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,42%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 18,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,57; -1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,28; 45,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,9; 23,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,23; 40,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,96; 14,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,97; 14,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,17; 4,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,59; 17,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 17,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 21,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 24,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; 17,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 28,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,22; 5,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 13,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 20,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,43; 11,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,22; 27,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 33,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 35,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 25,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 44,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,89; 8,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 19,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 30,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 16,4</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,83; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 19,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 18,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; 13,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; 17,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 12,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 10,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 15,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 13,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,71; 19,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 32,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 31,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; 18,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 24,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,54; 17,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,47; 15,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 23,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 19,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 12,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,85; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 1,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,86; 0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,66; 13,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 10,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,49; 5,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,47; 3,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,26; 4,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 18,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,51; 3,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,95; 2,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,27; 1,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,91; 18,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 14,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,56; 7,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; 4,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; 5,86</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,28; -1,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,37; 1,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,53; -8,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 57,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 50,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 44,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,37; 10,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,55; 10,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,5; 2,84</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,41%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,63; -2,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 2,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,12; -10,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 161,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 151,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 115,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 13,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 13,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,75; 3,59</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-50,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-50,32</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,7</t>
         </is>
       </c>
     </row>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-50,32%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-25,91%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,32%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,7%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; 5,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 6,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 4,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 8,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 14,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 5,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 4,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 7,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 3,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 7,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 8,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 5,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 10,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 20,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 7,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 9,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 4,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,07</t>
+          <t>-18,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-7,12</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 11,57</t>
+          <t>-55,65; 10,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 14,27</t>
+          <t>-43,66; 13,88</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,72%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 14,2</t>
+          <t>-66,18; 11,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 17,51</t>
+          <t>-51,51; 16,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 24,1</t>
+          <t>-6,05; 23,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 5,87</t>
+          <t>-29,18; 5,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 11,35</t>
+          <t>-11,32; 11,48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 35,61</t>
+          <t>-7,6; 35,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 8,3</t>
+          <t>-36,15; 7,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 16,4</t>
+          <t>-15,06; 16,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 18,99</t>
+          <t>-4,55; 18,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 12,73</t>
+          <t>-12,17; 12,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 13,29</t>
+          <t>-3,3; 13,09</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 31,56</t>
+          <t>-5,99; 31,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 17,48</t>
+          <t>-14,13; 16,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 19,56</t>
+          <t>-4,17; 19,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 1,92</t>
+          <t>-23,72; 0,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 10,59</t>
+          <t>-16,3; 16,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 4,3</t>
+          <t>-12,04; 8,99</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>-3,93%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 2,81</t>
+          <t>-28,34; 1,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 14,26</t>
+          <t>-18,47; 24,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 5,86</t>
+          <t>-14,59; 12,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-23,13</t>
+          <t>-23,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,49</t>
+          <t>-10,51</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-37,53; -8,62</t>
+          <t>-37,35; -8,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 44,33</t>
+          <t>-6,4; 44,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 2,84</t>
+          <t>-20,52; 2,9</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-12,44%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,12; -10,29</t>
+          <t>-39,97; -10,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 115,73</t>
+          <t>-7,02; 116,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 3,59</t>
+          <t>-22,77; 3,4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-50,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-25,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-50,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-22,7</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-50,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-50,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 5,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 5,7</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 6,08</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 3,74</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 8,11</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 14,66</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 8,45</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 4,38</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 7,33</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-1,03%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-0,75%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-9,69; 7,73</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-8,9; 8,34</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 5,67</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 5,2</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-10,44; 10,94</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-1,39; 20,0</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-11,26; 7,77</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 11,43</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-7,1; 5,96</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-3,54; 9,96</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; 4,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 5,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 15,23</t>
+          <t>-41,84; 14,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,44; -1,13</t>
+          <t>-54,35; -0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 31,08</t>
+          <t>8,16; 30,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 19,14</t>
+          <t>-36,12; 23,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 28,48</t>
+          <t>-14,38; 27,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 10,24</t>
+          <t>-65,13; 8,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 11,22</t>
+          <t>-29,27; 11,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 4,19</t>
+          <t>-38,75; 1,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 13,88</t>
+          <t>-38,1; 15,79</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 18,77</t>
+          <t>-50,34; 17,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,57; -1,0</t>
+          <t>-63,56; -0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 45,1</t>
+          <t>8,88; 44,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 23,92</t>
+          <t>-41,6; 30,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 40,12</t>
+          <t>-14,37; 38,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 11,88</t>
+          <t>-72,7; 10,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 14,53</t>
+          <t>-34,43; 13,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 4,46</t>
+          <t>-43,99; 2,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 16,39</t>
+          <t>-45,87; 19,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 17,74</t>
+          <t>-7,01; 17,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 21,47</t>
+          <t>-2,49; 22,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 23,32</t>
+          <t>-9,19; 22,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 17,53</t>
+          <t>-10,4; 18,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 28,67</t>
+          <t>2,97; 28,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 5,47</t>
+          <t>-27,76; 6,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 13,01</t>
+          <t>-3,88; 13,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 20,71</t>
+          <t>3,3; 21,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 11,48</t>
+          <t>-10,79; 11,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 27,33</t>
+          <t>-8,94; 27,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 33,29</t>
+          <t>-3,1; 34,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 35,3</t>
+          <t>-11,42; 33,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 25,84</t>
+          <t>-12,79; 27,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 44,37</t>
+          <t>3,73; 43,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 7,99</t>
+          <t>-34,74; 9,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 19,06</t>
+          <t>-4,99; 19,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 30,15</t>
+          <t>4,4; 31,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 16,84</t>
+          <t>-14,43; 16,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 12,42</t>
+          <t>-11,66; 13,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 19,63</t>
+          <t>-2,92; 20,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 18,88</t>
+          <t>-4,17; 20,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 13,41</t>
+          <t>-14,12; 12,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 17,63</t>
+          <t>-10,58; 16,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 12,33</t>
+          <t>-12,77; 11,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 10,33</t>
+          <t>-7,42; 10,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 15,64</t>
+          <t>-1,62; 16,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 13,09</t>
+          <t>-3,57; 14,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 19,38</t>
+          <t>-15,66; 21,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 32,09</t>
+          <t>-3,62; 33,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 31,13</t>
+          <t>-5,6; 33,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 18,22</t>
+          <t>-16,45; 17,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 24,64</t>
+          <t>-12,44; 22,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 16,52</t>
+          <t>-14,8; 17,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 15,21</t>
+          <t>-9,59; 15,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 23,17</t>
+          <t>-2,07; 24,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 19,58</t>
+          <t>-4,64; 20,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 12,92</t>
+          <t>-13,32; 10,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 2,39</t>
+          <t>-25,27; 0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 0,82</t>
+          <t>-22,32; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 0,74</t>
+          <t>-35,97; 3,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 13,49</t>
+          <t>-18,23; 14,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 16,63</t>
+          <t>-15,36; 16,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 5,52</t>
+          <t>-16,19; 5,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 3,2</t>
+          <t>-17,67; 4,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 8,99</t>
+          <t>-13,33; 7,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 18,4</t>
+          <t>-16,73; 15,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 3,37</t>
+          <t>-31,29; 0,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 1,27</t>
+          <t>-28,48; 1,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 1,28</t>
+          <t>-40,55; 4,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 18,47</t>
+          <t>-20,52; 19,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 24,12</t>
+          <t>-16,87; 23,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 7,56</t>
+          <t>-19,87; 7,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 4,05</t>
+          <t>-21,75; 6,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 12,32</t>
+          <t>-16,31; 10,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-32,28; -1,14</t>
+          <t>-32,97; -0,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 1,91</t>
+          <t>-27,84; 4,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-37,35; -8,46</t>
+          <t>-36,79; -9,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 57,82</t>
+          <t>-0,07; 56,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 50,98</t>
+          <t>-8,08; 49,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 44,36</t>
+          <t>-7,33; 49,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 10,44</t>
+          <t>-15,87; 10,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 10,44</t>
+          <t>-15,3; 10,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 2,9</t>
+          <t>-22,25; 1,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -2,31</t>
+          <t>-35,54; -1,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 2,15</t>
+          <t>-30,02; 4,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,97; -10,61</t>
+          <t>-39,23; -11,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,11; 161,41</t>
+          <t>0,96; 154,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 151,32</t>
+          <t>-8,75; 130,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 116,13</t>
+          <t>-8,42; 139,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 13,5</t>
+          <t>-17,49; 13,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 13,23</t>
+          <t>-17,12; 13,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 3,4</t>
+          <t>-23,81; 2,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,7</t>
+          <t>-6,96; 5,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,08</t>
+          <t>-6,95; 5,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,74</t>
+          <t>-8,8; 3,93</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>-8,01; 8,13</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>-0,85; 14,08</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 8,45</t>
+          <t>-7,97; 8,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,38</t>
+          <t>-5,31; 4,71</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,33</t>
+          <t>-2,36; 7,34</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,4</t>
+          <t>-5,92; 5,43</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 7,73</t>
+          <t>-8,98; 7,15</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,34</t>
+          <t>-8,87; 8,13</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,2</t>
+          <t>-11,29; 5,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,94</t>
+          <t>-9,75; 10,99</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 20,0</t>
+          <t>-0,58; 19,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 11,43</t>
+          <t>-9,85; 10,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,96</t>
+          <t>-6,7; 6,4</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,96</t>
+          <t>-3,08; 9,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,96</t>
+          <t>-7,5; 7,37</t>
         </is>
       </c>
     </row>
